--- a/Excel Cookbook/CH11_Pivot_Tables.xlsx
+++ b/Excel Cookbook/CH11_Pivot_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffi\BDSE36MS_Office\Excel Cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A515A-5CE6-4FD0-9F41-556C916703B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62524F8C-FB6C-49E2-BD54-5DA740F29A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2-11.3 Insert Pivot" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
     <sheet name="CatChat" sheetId="11" r:id="rId6"/>
     <sheet name="Manic Mango" sheetId="10" r:id="rId7"/>
     <sheet name="Starbuzz" sheetId="9" r:id="rId8"/>
+    <sheet name="11.16 Grouping by Date" sheetId="12" r:id="rId9"/>
+    <sheet name="11.17 Grouping by Number " sheetId="13" r:id="rId10"/>
+    <sheet name="11.18 Grouping Text" sheetId="14" r:id="rId11"/>
+    <sheet name="11.20 Calculated Fields" sheetId="15" r:id="rId12"/>
+    <sheet name="11.22 Calculated Items" sheetId="16" r:id="rId13"/>
+    <sheet name="工作表6" sheetId="17" r:id="rId14"/>
+    <sheet name="11.25 Solve Order" sheetId="18" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="NativeTimeline_Order_date">#N/A</definedName>
@@ -28,16 +35,22 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId9"/>
-    <pivotCache cacheId="31" r:id="rId10"/>
-    <pivotCache cacheId="37" r:id="rId11"/>
-    <pivotCache cacheId="44" r:id="rId12"/>
-    <pivotCache cacheId="49" r:id="rId13"/>
+    <pivotCache cacheId="10" r:id="rId16"/>
+    <pivotCache cacheId="11" r:id="rId17"/>
+    <pivotCache cacheId="12" r:id="rId18"/>
+    <pivotCache cacheId="13" r:id="rId19"/>
+    <pivotCache cacheId="14" r:id="rId20"/>
+    <pivotCache cacheId="20" r:id="rId21"/>
+    <pivotCache cacheId="25" r:id="rId22"/>
+    <pivotCache cacheId="32" r:id="rId23"/>
+    <pivotCache cacheId="38" r:id="rId24"/>
+    <pivotCache cacheId="44" r:id="rId25"/>
+    <pivotCache cacheId="56" r:id="rId26"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId27"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -45,7 +58,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId15"/>
+        <x15:timelineCacheRef r:id="rId28"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="88">
   <si>
     <t>Product</t>
   </si>
@@ -137,13 +150,197 @@
   </si>
   <si>
     <t>(全部)</t>
+  </si>
+  <si>
+    <t>2022年</t>
+  </si>
+  <si>
+    <t>2023年</t>
+  </si>
+  <si>
+    <t>第一季</t>
+  </si>
+  <si>
+    <t>第二季</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Delia</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>71-80</t>
+  </si>
+  <si>
+    <t>81-90</t>
+  </si>
+  <si>
+    <t>91-100</t>
+  </si>
+  <si>
+    <t>Scone</t>
+  </si>
+  <si>
+    <t>計數 - Name</t>
+  </si>
+  <si>
+    <t>Cream Tea</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>&gt;101</t>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>加總 - Bonus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Returned</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>Refunded</t>
+  </si>
+  <si>
+    <t>計算欄位</t>
+  </si>
+  <si>
+    <t>求解順序</t>
+  </si>
+  <si>
+    <t>欄位</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t>計算項目</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>= -(Canceled +Returned )</t>
+  </si>
+  <si>
+    <t>備註:</t>
+  </si>
+  <si>
+    <t>當有多個公式更新一個儲存格時，</t>
+  </si>
+  <si>
+    <t>儲存格的值是由求解順序最後的公式來決定。</t>
+  </si>
+  <si>
+    <t>若要變更多個計算項目或欄位的求解順序，</t>
+  </si>
+  <si>
+    <t>在 [選項] 索引標籤的 [計算] 群組中，按一下 [欄位、項目和集]，再按一下 [求解順序]。</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>計數 - Amount</t>
+  </si>
+  <si>
+    <t>Return Rate</t>
+  </si>
+  <si>
+    <t>North America</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +355,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,26 +389,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
     </dxf>
@@ -229,8 +463,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Company">
@@ -253,7 +487,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -307,8 +541,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Order date">
@@ -326,12 +560,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Order date"/>
+              <tsle:timeslicer name="Order date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -398,6 +632,97 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="634.98" maxValue="81458.240000000005"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="許伯瑋" refreshedDate="45784.802456944446" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{83EA633A-92CD-4C40-AA5E-9B21BA73F353}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table723101314"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1248" maxValue="690324"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Shipped"/>
+        <s v="Pending"/>
+        <s v="Returned"/>
+        <s v="Canceled"/>
+        <s v="Refunded" f="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <calculatedItems count="1">
+    <calculatedItem formula=" -(Status[Canceled] +Status[Returned] )">
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+  </calculatedItems>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="許伯瑋" refreshedDate="45784.848417939815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{5E9DCC46-BC00-4D8B-8CE0-00A6999B21F1}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table72310131416"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Australia"/>
+        <s v="USA"/>
+        <s v="Canada"/>
+        <s v="North America" f="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1248" maxValue="690324"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Shipped"/>
+        <s v="Returned"/>
+        <s v="Return Rate" f="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <calculatedItems count="2">
+    <calculatedItem formula="Country[Canada] +Country[USA]">
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+    <calculatedItem formula="Status[Returned]/(Status[Returned]+Status[Shipped])">
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+  </calculatedItems>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
@@ -561,6 +886,221 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="許伯瑋" refreshedDate="45784.761262152781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{7978F2E2-280B-4922-ADA8-C7C852B8818A}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table72310"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Salesperson" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Company" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Order date" numFmtId="15">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-12-14T00:00:00" maxDate="2023-04-09T00:00:00" count="9">
+        <d v="2023-01-21T00:00:00"/>
+        <d v="2023-01-03T00:00:00"/>
+        <d v="2023-03-04T00:00:00"/>
+        <d v="2022-12-14T00:00:00"/>
+        <d v="2023-04-01T00:00:00"/>
+        <d v="2023-02-06T00:00:00"/>
+        <d v="2023-02-25T00:00:00"/>
+        <d v="2023-03-05T00:00:00"/>
+        <d v="2023-04-08T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="6"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1248" maxValue="690324" count="9">
+        <n v="23457"/>
+        <n v="678754"/>
+        <n v="1248"/>
+        <n v="78976"/>
+        <n v="67643"/>
+        <n v="6742"/>
+        <n v="16547"/>
+        <n v="690324"/>
+        <n v="41258"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="月 (Order date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="months" startDate="2022-12-14T00:00:00" endDate="2023-04-09T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;2022-12-14"/>
+          <s v="1月"/>
+          <s v="2月"/>
+          <s v="3月"/>
+          <s v="4月"/>
+          <s v="5月"/>
+          <s v="6月"/>
+          <s v="7月"/>
+          <s v="8月"/>
+          <s v="9月"/>
+          <s v="10月"/>
+          <s v="11月"/>
+          <s v="12月"/>
+          <s v="&gt;2023-4-9"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="季 (Order date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="quarters" startDate="2022-12-14T00:00:00" endDate="2023-04-09T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;2022-12-14"/>
+          <s v="第一季"/>
+          <s v="第二季"/>
+          <s v="第三季"/>
+          <s v="第四季"/>
+          <s v="&gt;2023-4-9"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="年 (Order date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="years" startDate="2022-12-14T00:00:00" endDate="2023-04-09T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;2022-12-14"/>
+          <s v="2022年"/>
+          <s v="2023年"/>
+          <s v="&gt;2023-4-9"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="許伯瑋" refreshedDate="45784.769904513887" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{ECCB9F27-E6AE-42E1-9B0E-383B89BC6D40}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table3710"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="100" count="6">
+        <n v="70"/>
+        <n v="100"/>
+        <n v="85"/>
+        <n v="75"/>
+        <n v="5"/>
+        <n v="65"/>
+      </sharedItems>
+      <fieldGroup base="1">
+        <rangePr autoStart="0" startNum="1" endNum="100" groupInterval="10"/>
+        <groupItems count="12">
+          <s v="&lt;1"/>
+          <s v="1-10"/>
+          <s v="11-20"/>
+          <s v="21-30"/>
+          <s v="31-40"/>
+          <s v="41-50"/>
+          <s v="51-60"/>
+          <s v="61-70"/>
+          <s v="71-80"/>
+          <s v="81-90"/>
+          <s v="91-100"/>
+          <s v="&gt;101"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="許伯瑋" refreshedDate="45784.772179861109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{D6DD1DE0-77A4-4182-B27C-18A4A8984788}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="ProductsTable5712"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Coffee"/>
+        <s v="Tea"/>
+        <s v="Scone"/>
+        <s v="Pizza"/>
+      </sharedItems>
+      <fieldGroup par="4"/>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1254.1500000000001" maxValue="81458.240000000005"/>
+    </cacheField>
+    <cacheField name="Product2" numFmtId="0" databaseField="0">
+      <fieldGroup base="1">
+        <discretePr count="4">
+          <x v="0"/>
+          <x v="1"/>
+          <x v="1"/>
+          <x v="0"/>
+        </discretePr>
+        <groupItems count="2">
+          <s v="資料組1"/>
+          <s v="資料組2"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="許伯瑋" refreshedDate="45784.786132870373" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{7BAE73D9-1018-4C35-A0AB-8E56ED718547}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table7231013"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Salesperson" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Linda"/>
+        <s v="Alex"/>
+        <s v="Louise"/>
+        <s v="Will"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54" maxValue="45017"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1248" maxValue="690324"/>
+    </cacheField>
+    <cacheField name="Bonus" numFmtId="0" formula=" IF(Units&gt;5000,Amount *2%, 0)" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
   <r>
@@ -637,6 +1177,87 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1457.21"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <n v="23457.01"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="678754"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1248"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="78976.990000000005"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="67643"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6742"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="16547"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="690324"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="41258"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <n v="678754"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1248"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="78976.990000000005"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="67643"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6742"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="16547"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="690324"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -907,8 +1528,203 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <s v="Linda"/>
+    <s v="Starbuzz"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Alex"/>
+    <s v="Manic Mango"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Louise"/>
+    <s v="Starbuzz"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Alex"/>
+    <s v="Manic Mango"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Linda"/>
+    <s v="CatChat"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Louise"/>
+    <s v="CatChat"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Will"/>
+    <s v="Starbuzz"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Will"/>
+    <s v="CatChat"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Linda"/>
+    <s v="Manic Mango"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <s v="Jamie"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Delia"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Angela"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Marcus"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rick"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Harley"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Simon"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <s v="Drink"/>
+    <x v="0"/>
+    <s v="January"/>
+    <n v="1254.1500000000001"/>
+  </r>
+  <r>
+    <s v="Drink"/>
+    <x v="1"/>
+    <s v="January"/>
+    <n v="47862.12"/>
+  </r>
+  <r>
+    <s v="Food"/>
+    <x v="2"/>
+    <s v="January"/>
+    <n v="1457.57"/>
+  </r>
+  <r>
+    <s v="Drink"/>
+    <x v="0"/>
+    <s v="February"/>
+    <n v="4125.41"/>
+  </r>
+  <r>
+    <s v="Drink"/>
+    <x v="1"/>
+    <s v="February"/>
+    <n v="7142.27"/>
+  </r>
+  <r>
+    <s v="Food"/>
+    <x v="2"/>
+    <s v="February"/>
+    <n v="6543.98"/>
+  </r>
+  <r>
+    <s v="Food"/>
+    <x v="3"/>
+    <s v="January"/>
+    <n v="41258.239999999998"/>
+  </r>
+  <r>
+    <s v="Food"/>
+    <x v="3"/>
+    <s v="February"/>
+    <n v="81458.240000000005"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="23457"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1500"/>
+    <n v="678754"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="900"/>
+    <n v="1248"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1859"/>
+    <n v="78976"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45017"/>
+    <n v="67643"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4200"/>
+    <n v="6742"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="44982"/>
+    <n v="16547"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="54"/>
+    <n v="690324"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1400"/>
+    <n v="41258"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF25E095-03C6-4C85-98E9-5B6B25EB22F3}" name="樞紐分析表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF25E095-03C6-4C85-98E9-5B6B25EB22F3}" name="樞紐分析表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="J1:M7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -978,8 +1794,467 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F51D4-F363-43A2-B157-0FACFE9CC707}" name="樞紐分析表1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F1:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="15" showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="6"/>
+    <field x="5"/>
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="加總 - Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4975559-C73F-4307-94C3-15BD6E93B40F}" name="樞紐分析表2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" missingCaption="N/A" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D1:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="計數 - Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EB60EA0-7F83-4203-A6C6-6F0FDCA84139}" name="樞紐分析表3" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F1:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item n="Cream Tea" x="0"/>
+        <item n="Other" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="加總 - Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C69A2080-63D7-4074-842B-3EDE4D89B21B}" name="樞紐分析表4" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E1:F6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="加總 - Bonus" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6AA4B3F-F897-4893-AA32-E7D3DAB5FB7C}" name="樞紐分析表5" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D1:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item f="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="加總 - Amount" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA70C30B-17C2-41F8-85C3-5D487084E5FC}" name="樞紐分析表6" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F1:I6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item f="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item f="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="計數 - Amount" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C31A1FF6-3E36-41ED-A5D6-BCAADF6D2F41}" name="樞紐分析表2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C31A1FF6-3E36-41ED-A5D6-BCAADF6D2F41}" name="樞紐分析表2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="J1:M10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1067,7 +2342,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEF9F7E6-FC21-4115-AEEA-1113A7E5430F}" name="樞紐分析表3" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEF9F7E6-FC21-4115-AEEA-1113A7E5430F}" name="樞紐分析表3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="J1:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" countASubtotal="1">
@@ -1135,7 +2410,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46C80147-AB2F-474E-88F8-F443C03D9EE8}" name="樞紐分析表5" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{46C80147-AB2F-474E-88F8-F443C03D9EE8}" name="樞紐分析表5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="F12:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1226,7 +2501,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3FE6ECDE-8B44-47D9-9EE7-4B9CE1A8AF8C}" name="樞紐分析表4" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3FE6ECDE-8B44-47D9-9EE7-4B9CE1A8AF8C}" name="樞紐分析表4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="F3:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1288,7 +2563,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表6" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="G3:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1353,7 +2628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表12" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表12" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1415,7 +2690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表11" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表11" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1474,7 +2749,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表10" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A66194A-015F-4F9D-B7C2-27FFC945153B}" name="樞紐分析表10" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1570,6 +2845,29 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{47C98E75-AA8F-4A1B-8CBC-41FFE3244688}" name="Table723101314" displayName="Table723101314" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{47C98E75-AA8F-4A1B-8CBC-41FFE3244688}"/>
+  <tableColumns count="2">
+    <tableColumn id="4" xr3:uid="{9D411452-C76C-4674-85C9-1DABD070B8BD}" name="Amount"/>
+    <tableColumn id="2" xr3:uid="{12F57FC3-1BC1-489A-80EE-B3576F118A28}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9C710539-E63D-4B7F-AA1C-9D440C045C5E}" name="Table72310131416" displayName="Table72310131416" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{9C710539-E63D-4B7F-AA1C-9D440C045C5E}"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{8E1CBF70-CCB1-43E4-994C-87EA8F60C14F}" name="Country"/>
+    <tableColumn id="4" xr3:uid="{E9B7C9BD-4DD7-4272-8105-C5A2067528E4}" name="Amount"/>
+    <tableColumn id="2" xr3:uid="{1C72F435-E6EF-4DC4-AEA8-507866676CD0}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E12E2C1-F8EB-4536-9B87-EEC15C04707D}" name="ProductsTable5" displayName="ProductsTable5" ref="A1:D16" totalsRowShown="0">
   <autoFilter ref="A1:D16" xr:uid="{9E12E2C1-F8EB-4536-9B87-EEC15C04707D}"/>
@@ -1602,7 +2900,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{43882B19-5A36-46D0-9895-374D1C501F5A}" name="Salesperson"/>
     <tableColumn id="2" xr3:uid="{12178F15-1740-4BFE-8604-33B6A9E5EDED}" name="Company"/>
-    <tableColumn id="3" xr3:uid="{11399980-F992-41F3-91AE-C55DA29EF87E}" name="Order date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{11399980-F992-41F3-91AE-C55DA29EF87E}" name="Order date" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{BB71C23B-7807-4ADB-9611-05735459184F}" name="Amount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1615,8 +2913,57 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE9E8F70-90BF-43D9-8E4B-4FF1E66EE6C7}" name="Salesperson"/>
     <tableColumn id="2" xr3:uid="{3108B586-12BD-4011-B2D9-70CEF76EA968}" name="Company"/>
-    <tableColumn id="3" xr3:uid="{305BC3A3-07EB-4588-B354-D6EB12F75B0D}" name="Order date" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{305BC3A3-07EB-4588-B354-D6EB12F75B0D}" name="Order date" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{6CAF09D1-EE55-48EA-BD64-31D5229138BE}" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A432F42-90F7-4713-9C27-451F3456CB89}" name="Table72310" displayName="Table72310" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10" xr:uid="{1A432F42-90F7-4713-9C27-451F3456CB89}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E6BA178A-CAE4-438F-9016-498B2881D317}" name="Salesperson"/>
+    <tableColumn id="2" xr3:uid="{26AA1C11-E29C-4FB2-8A00-DD10F3BFABFE}" name="Company"/>
+    <tableColumn id="3" xr3:uid="{D4BD662D-ACFA-4577-B296-AA568E964F33}" name="Order date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A81C147D-F61D-4715-B38A-A9B6141C58C4}" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{57AD5639-44B3-4905-8EBF-15AD52A0CEB4}" name="Table3710" displayName="Table3710" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{57AD5639-44B3-4905-8EBF-15AD52A0CEB4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1282D7FD-C386-4D1A-AAFC-BAB55EB253F6}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{653762D9-AAB4-4534-A280-F71355294499}" name="Score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{879A5FFB-729C-447F-9DB5-F8323EFBE4F5}" name="ProductsTable5712" displayName="ProductsTable5712" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{879A5FFB-729C-447F-9DB5-F8323EFBE4F5}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{FAADFBD9-10BF-4C50-9E3A-0FA45A4B668A}" name="Category"/>
+    <tableColumn id="1" xr3:uid="{5F56E235-268E-44A3-AEDD-9AEBE677DDFB}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{613343B4-4121-41E5-9ED0-D66B21B7F81C}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{F1EA65B8-01E1-4A30-A438-0A4584EF62BF}" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{22C10F10-69D1-4F1B-A9FB-08F20736BCB4}" name="Table7231013" displayName="Table7231013" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{22C10F10-69D1-4F1B-A9FB-08F20736BCB4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B47F6106-A406-4830-80E8-57E28FE99305}" name="Salesperson"/>
+    <tableColumn id="3" xr3:uid="{F62FB6DA-8977-49CD-AA55-844019084613}" name="Units" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{6C103358-2B6A-4A7F-9BBF-3210CDD4C9B5}" name="Amount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1970,13 +3317,13 @@
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>2092.5500000000002</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>8001.19</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>10093.74</v>
       </c>
     </row>
@@ -1993,13 +3340,13 @@
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>7803.3799999999992</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>5582.43</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>13385.81</v>
       </c>
     </row>
@@ -2016,13 +3363,13 @@
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>120192.88999999998</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>81458.240000000005</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>201651.13</v>
       </c>
     </row>
@@ -2039,13 +3386,13 @@
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>48627.350000000006</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>52923.520000000004</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>101550.87000000001</v>
       </c>
     </row>
@@ -2062,13 +3409,13 @@
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>178716.16999999998</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>147965.38</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>326681.55</v>
       </c>
     </row>
@@ -2177,6 +3524,968 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD654D8D-22F4-4D57-A1FA-5299CC95035C}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BF2C2-9FD8-4744-AEA1-EC391CFAC412}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1254.1500000000001</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <v>128096.04000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>47862.12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5379.5599999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1457.57</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>122716.48000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4125.41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="5">
+        <v>63005.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7142.27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8001.5499999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>6543.98</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>55004.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>41258.239999999998</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <v>191101.97999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>81458.240000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183F01D3-1049-410A-AD32-56F1DD0811E0}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>23457</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="C3">
+        <v>678754</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2647.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>900</v>
+      </c>
+      <c r="C4">
+        <v>1248</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1859</v>
+      </c>
+      <c r="C5">
+        <v>78976</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>14137.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>45017</v>
+      </c>
+      <c r="C6">
+        <v>67643</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>32098.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>4200</v>
+      </c>
+      <c r="C7">
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>44982</v>
+      </c>
+      <c r="C8">
+        <v>16547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>690324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1400</v>
+      </c>
+      <c r="C10">
+        <v>41258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B581839-83B8-4410-8C30-FA941FADE529}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>23457.01</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="5">
+        <v>16547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>678754</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="5">
+        <v>80224.990000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5">
+        <v>764709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>78976.990000000005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5">
+        <v>743469.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>67643</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-781256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6742</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>823694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16547</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>690324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>41258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB4386-42AF-47D9-9E04-5554EFCC231A}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DF7158-AFFF-4695-BEDB-96720D369EB7}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>678754</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>1248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>78976.990000000005</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>67643</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>6742</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>16547</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>690324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2257,13 +4566,13 @@
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>56430.73</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>12724.7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>69155.430000000008</v>
       </c>
     </row>
@@ -2280,16 +4589,16 @@
       <c r="D4">
         <v>1457.57</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>7803.3799999999992</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>5582.43</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>13385.81</v>
       </c>
     </row>
@@ -2306,16 +4615,16 @@
       <c r="D5">
         <v>4125.41</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>48627.350000000006</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>7142.27</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>55769.62000000001</v>
       </c>
     </row>
@@ -2335,13 +4644,13 @@
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>122285.43999999999</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>135240.68</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>257526.12</v>
       </c>
     </row>
@@ -2358,16 +4667,16 @@
       <c r="D7">
         <v>6543.98</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>2092.5500000000002</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>8001.19</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>10093.74</v>
       </c>
     </row>
@@ -2384,16 +4693,16 @@
       <c r="D8">
         <v>41258.239999999998</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>120192.88999999998</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>81458.240000000005</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>201651.13</v>
       </c>
     </row>
@@ -2410,14 +4719,13 @@
       <c r="D9">
         <v>81458.240000000005</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>45781.25</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>45781.25</v>
       </c>
     </row>
@@ -2437,13 +4745,13 @@
       <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>178716.16999999998</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>147965.38</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>326681.55000000005</v>
       </c>
     </row>
@@ -2590,7 +4898,7 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>4</v>
       </c>
     </row>
@@ -2607,10 +4915,10 @@
       <c r="D3">
         <v>47862.12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>5379.5599999999995</v>
       </c>
     </row>
@@ -2627,10 +4935,10 @@
       <c r="D4">
         <v>1457.57</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>55004.39</v>
       </c>
     </row>
@@ -2650,7 +4958,7 @@
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>4</v>
       </c>
     </row>
@@ -2667,10 +4975,10 @@
       <c r="D6">
         <v>7142.27</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>8001.5499999999993</v>
       </c>
     </row>
@@ -2687,10 +4995,10 @@
       <c r="D7">
         <v>6543.98</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>122716.48000000001</v>
       </c>
     </row>
@@ -2710,7 +5018,7 @@
       <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>191101.97999999998</v>
       </c>
     </row>
@@ -2785,7 +5093,7 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>44947</v>
       </c>
       <c r="D2">
@@ -2799,7 +5107,7 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44929</v>
       </c>
       <c r="D3">
@@ -2819,7 +5127,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>44989</v>
       </c>
       <c r="D4">
@@ -2828,7 +5136,7 @@
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>23457</v>
       </c>
     </row>
@@ -2839,7 +5147,7 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>44909</v>
       </c>
       <c r="D5">
@@ -2848,7 +5156,7 @@
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>1248</v>
       </c>
     </row>
@@ -2859,7 +5167,7 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>45017</v>
       </c>
       <c r="D6">
@@ -2868,7 +5176,7 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>16547</v>
       </c>
     </row>
@@ -2879,7 +5187,7 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>44963</v>
       </c>
       <c r="D7">
@@ -2888,7 +5196,7 @@
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>41252</v>
       </c>
     </row>
@@ -2899,7 +5207,7 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>44982</v>
       </c>
       <c r="D8">
@@ -2913,7 +5221,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>44990</v>
       </c>
       <c r="D9">
@@ -2927,7 +5235,7 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>45024</v>
       </c>
       <c r="D10">
@@ -2957,10 +5265,10 @@
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>23457</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>23457</v>
       </c>
     </row>
@@ -2968,10 +5276,10 @@
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>23457</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>23457</v>
       </c>
     </row>
@@ -3001,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F650AAB-7A57-44E2-9BA6-12ECB16CFAAA}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -3042,7 +5350,7 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>44947</v>
       </c>
       <c r="D2">
@@ -3056,7 +5364,7 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44929</v>
       </c>
       <c r="D3">
@@ -3076,7 +5384,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>44989</v>
       </c>
       <c r="D4">
@@ -3085,7 +5393,7 @@
       <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>757730</v>
       </c>
     </row>
@@ -3096,7 +5404,7 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>44909</v>
       </c>
       <c r="D5">
@@ -3105,7 +5413,7 @@
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>132358</v>
       </c>
     </row>
@@ -3116,7 +5424,7 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>45017</v>
       </c>
       <c r="D6">
@@ -3125,7 +5433,7 @@
       <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>7990</v>
       </c>
     </row>
@@ -3136,7 +5444,7 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>44963</v>
       </c>
       <c r="D7">
@@ -3145,7 +5453,7 @@
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>706871</v>
       </c>
     </row>
@@ -3156,7 +5464,7 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>44982</v>
       </c>
       <c r="D8">
@@ -3165,7 +5473,7 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>1604949</v>
       </c>
     </row>
@@ -3176,7 +5484,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>44990</v>
       </c>
       <c r="D9">
@@ -3190,7 +5498,7 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>45024</v>
       </c>
       <c r="D10">
@@ -3240,7 +5548,7 @@
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>67643</v>
       </c>
     </row>
@@ -3248,7 +5556,7 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>6742</v>
       </c>
     </row>
@@ -3256,7 +5564,7 @@
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>690324</v>
       </c>
     </row>
@@ -3264,7 +5572,7 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>764709</v>
       </c>
     </row>
@@ -3306,7 +5614,7 @@
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>757730</v>
       </c>
     </row>
@@ -3314,7 +5622,7 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>41258</v>
       </c>
     </row>
@@ -3322,7 +5630,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>798988</v>
       </c>
     </row>
@@ -3364,7 +5672,7 @@
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>23457</v>
       </c>
     </row>
@@ -3372,7 +5680,7 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1248</v>
       </c>
     </row>
@@ -3380,7 +5688,7 @@
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>16547</v>
       </c>
     </row>
@@ -3388,7 +5696,7 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>41252</v>
       </c>
     </row>
@@ -3396,4 +5704,227 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ADC385-01A0-4981-B472-DD3BDF69A708}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44947</v>
+      </c>
+      <c r="D2">
+        <v>23457</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5">
+        <v>78976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44929</v>
+      </c>
+      <c r="D3">
+        <v>678754</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1525973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44989</v>
+      </c>
+      <c r="D4">
+        <v>1248</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1417072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44909</v>
+      </c>
+      <c r="D5">
+        <v>78976</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5">
+        <v>702211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45017</v>
+      </c>
+      <c r="D6">
+        <v>67643</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5">
+        <v>23289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44963</v>
+      </c>
+      <c r="D7">
+        <v>6742</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5">
+        <v>691572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44982</v>
+      </c>
+      <c r="D8">
+        <v>16547</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <v>108901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44990</v>
+      </c>
+      <c r="D9">
+        <v>690324</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1604949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45024</v>
+      </c>
+      <c r="D10">
+        <v>41258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>